--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H2">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I2">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J2">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N2">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O2">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P2">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q2">
-        <v>305.51742707472</v>
+        <v>116.2646326068533</v>
       </c>
       <c r="R2">
-        <v>2749.65684367248</v>
+        <v>1046.38169346168</v>
       </c>
       <c r="S2">
-        <v>0.03786394518880731</v>
+        <v>0.01870872366753497</v>
       </c>
       <c r="T2">
-        <v>0.03786394518880731</v>
+        <v>0.01870872366753497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H3">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I3">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J3">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>120.936512</v>
       </c>
       <c r="O3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q3">
-        <v>72.051917928896</v>
+        <v>34.69406500170666</v>
       </c>
       <c r="R3">
-        <v>648.4672613600641</v>
+        <v>312.24658501536</v>
       </c>
       <c r="S3">
-        <v>0.008929670223168434</v>
+        <v>0.005582795562733886</v>
       </c>
       <c r="T3">
-        <v>0.008929670223168434</v>
+        <v>0.005582795562733886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H4">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I4">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J4">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N4">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q4">
-        <v>19.861458201156</v>
+        <v>12.24941594685167</v>
       </c>
       <c r="R4">
-        <v>178.753123810404</v>
+        <v>110.244743521665</v>
       </c>
       <c r="S4">
-        <v>0.002461506605037081</v>
+        <v>0.001971114799917541</v>
       </c>
       <c r="T4">
-        <v>0.002461506605037081</v>
+        <v>0.001971114799917541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>19.46983</v>
       </c>
       <c r="H5">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I5">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J5">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N5">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O5">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P5">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q5">
-        <v>3328.0419029424</v>
+        <v>2630.212147853493</v>
       </c>
       <c r="R5">
-        <v>29952.3771264816</v>
+        <v>23671.90933068144</v>
       </c>
       <c r="S5">
-        <v>0.4124569829145824</v>
+        <v>0.423240594821129</v>
       </c>
       <c r="T5">
-        <v>0.4124569829145825</v>
+        <v>0.4232405948211291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>19.46983</v>
       </c>
       <c r="H6">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I6">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J6">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>120.936512</v>
       </c>
       <c r="O6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q6">
-        <v>784.8711098109866</v>
+        <v>784.8711098109867</v>
       </c>
       <c r="R6">
-        <v>7063.839988298879</v>
+        <v>7063.839988298881</v>
       </c>
       <c r="S6">
-        <v>0.09727208351651044</v>
+        <v>0.1262975367387837</v>
       </c>
       <c r="T6">
-        <v>0.09727208351651044</v>
+        <v>0.1262975367387837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>19.46983</v>
       </c>
       <c r="H7">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I7">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J7">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N7">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q7">
-        <v>216.35350159852</v>
+        <v>277.1140449603967</v>
       </c>
       <c r="R7">
-        <v>1947.18151438668</v>
+        <v>2494.02640464357</v>
       </c>
       <c r="S7">
-        <v>0.02681351831340667</v>
+        <v>0.04459180728750113</v>
       </c>
       <c r="T7">
-        <v>0.02681351831340667</v>
+        <v>0.04459180728750114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H8">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I8">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J8">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N8">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O8">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P8">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q8">
-        <v>2569.19511588992</v>
+        <v>1680.521382527349</v>
       </c>
       <c r="R8">
-        <v>23122.75604300928</v>
+        <v>15124.69244274614</v>
       </c>
       <c r="S8">
-        <v>0.3184101934179216</v>
+        <v>0.2704211027733874</v>
       </c>
       <c r="T8">
-        <v>0.3184101934179216</v>
+        <v>0.2704211027733874</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H9">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I9">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J9">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>120.936512</v>
       </c>
       <c r="O9">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P9">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q9">
-        <v>605.9079424891448</v>
+        <v>501.4776787650986</v>
       </c>
       <c r="R9">
-        <v>5453.171482402304</v>
+        <v>4513.299108885887</v>
       </c>
       <c r="S9">
-        <v>0.07509249257411781</v>
+        <v>0.08069528202250621</v>
       </c>
       <c r="T9">
-        <v>0.07509249257411781</v>
+        <v>0.08069528202250621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H10">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I10">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J10">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N10">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O10">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P10">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q10">
-        <v>167.0214425849493</v>
+        <v>177.0564698876647</v>
       </c>
       <c r="R10">
-        <v>1503.192983264544</v>
+        <v>1593.508228988982</v>
       </c>
       <c r="S10">
-        <v>0.02069960724644808</v>
+        <v>0.02849104232650615</v>
       </c>
       <c r="T10">
-        <v>0.02069960724644808</v>
+        <v>0.02849104232650615</v>
       </c>
     </row>
   </sheetData>
